--- a/data/math.xlsx
+++ b/data/math.xlsx
@@ -498,25 +498,25 @@
         <v>0.3</v>
       </c>
       <c r="E2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G2" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H2" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09941520467836257</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="J2" t="n">
-        <v>0.265625</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1446808510638298</v>
+        <v>0.1201716738197425</v>
       </c>
     </row>
     <row r="3">
@@ -539,25 +539,25 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="G3" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H3" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05803571428571429</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J3" t="n">
-        <v>0.203125</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.108843537414966</v>
       </c>
     </row>
     <row r="4">
@@ -580,25 +580,25 @@
         <v>0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>1346</v>
+        <v>1360</v>
       </c>
       <c r="G4" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03472222222222222</v>
+        <v>0.039568345323741</v>
       </c>
       <c r="J4" t="n">
-        <v>0.15625</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05681818181818182</v>
+        <v>0.06321839080459771</v>
       </c>
     </row>
     <row r="5">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>2036</v>
+        <v>2013</v>
       </c>
       <c r="G5" t="n">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="H5" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01597444089456869</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="J5" t="n">
-        <v>0.078125</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02652519893899204</v>
+        <v>0.06175771971496437</v>
       </c>
     </row>
     <row r="6">
@@ -665,22 +665,22 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>2739</v>
+        <v>2666</v>
       </c>
       <c r="G6" t="n">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="H6" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.02168674698795181</v>
       </c>
       <c r="J6" t="n">
-        <v>0.140625</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04433497536945813</v>
+        <v>0.03711340206185567</v>
       </c>
     </row>
     <row r="7">
@@ -703,25 +703,25 @@
         <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>3148</v>
+        <v>3125</v>
       </c>
       <c r="G7" t="n">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="H7" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01941747572815534</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03361344537815126</v>
+        <v>0.04705882352941176</v>
       </c>
     </row>
     <row r="8">
@@ -744,25 +744,25 @@
         <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>3588</v>
+        <v>3575</v>
       </c>
       <c r="G8" t="n">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H8" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02022471910112359</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="J8" t="n">
-        <v>0.140625</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03536345776031434</v>
+        <v>0.0299625468164794</v>
       </c>
     </row>
     <row r="9">
@@ -785,25 +785,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>4251</v>
+        <v>4227</v>
       </c>
       <c r="G9" t="n">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="H9" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01377952755905512</v>
+        <v>0.01125703564727955</v>
       </c>
       <c r="J9" t="n">
-        <v>0.109375</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02447552447552448</v>
+        <v>0.01990049751243781</v>
       </c>
     </row>
     <row r="10">
@@ -826,25 +826,25 @@
         <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="J10" t="n">
-        <v>0.140625</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1610738255033557</v>
       </c>
     </row>
     <row r="11">
@@ -867,25 +867,25 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G11" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0196078431372549</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="J11" t="n">
-        <v>0.015625</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01739130434782609</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="12">
@@ -908,25 +908,25 @@
         <v>0.7</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1568</v>
+        <v>1577</v>
       </c>
       <c r="G12" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H12" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J12" t="n">
-        <v>0.046875</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="13">
@@ -952,22 +952,22 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2303</v>
+        <v>2300</v>
       </c>
       <c r="G13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H13" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="J13" t="n">
-        <v>0.015625</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="14">
@@ -990,25 +990,25 @@
         <v>1.3</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>3032</v>
+        <v>3017</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H14" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.01587301587301587</v>
       </c>
     </row>
     <row r="15">
@@ -1037,19 +1037,19 @@
         <v>3509</v>
       </c>
       <c r="G15" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="J15" t="n">
-        <v>0.015625</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.01739130434782609</v>
       </c>
     </row>
     <row r="16">
@@ -1072,25 +1072,25 @@
         <v>1.7</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3996</v>
+        <v>3988</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
     </row>
     <row r="17">
@@ -1116,22 +1116,22 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="G17" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="J17" t="n">
-        <v>0.015625</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="18">
@@ -1154,25 +1154,25 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G18" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="H18" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07207207207207207</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1259842519685039</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="19">
@@ -1195,25 +1195,25 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="G19" t="n">
-        <v>787</v>
+        <v>728</v>
       </c>
       <c r="H19" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04024390243902439</v>
+        <v>0.04084321475625823</v>
       </c>
       <c r="J19" t="n">
-        <v>0.515625</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07466063348416289</v>
+        <v>0.07478890229191798</v>
       </c>
     </row>
     <row r="20">
@@ -1236,25 +1236,25 @@
         <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="G20" t="n">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="H20" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02648401826484018</v>
+        <v>0.02767527675276753</v>
       </c>
       <c r="J20" t="n">
-        <v>0.453125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05004314063848145</v>
+        <v>0.05199306759098787</v>
       </c>
     </row>
     <row r="21">
@@ -1277,25 +1277,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="G21" t="n">
-        <v>1542</v>
+        <v>1571</v>
       </c>
       <c r="H21" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01908396946564886</v>
+        <v>0.01996257018091079</v>
       </c>
       <c r="J21" t="n">
-        <v>0.46875</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03667481662591687</v>
+        <v>0.03825463239689181</v>
       </c>
     </row>
     <row r="22">
@@ -1318,25 +1318,25 @@
         <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F22" t="n">
-        <v>1021</v>
+        <v>965</v>
       </c>
       <c r="G22" t="n">
-        <v>2051</v>
+        <v>2107</v>
       </c>
       <c r="H22" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0148895292987512</v>
+        <v>0.01633986928104575</v>
       </c>
       <c r="J22" t="n">
-        <v>0.484375</v>
+        <v>0.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02889095992544269</v>
+        <v>0.03164556962025317</v>
       </c>
     </row>
     <row r="23">
@@ -1359,25 +1359,25 @@
         <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G23" t="n">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="H23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01213592233009709</v>
+        <v>0.01372074253430186</v>
       </c>
       <c r="J23" t="n">
-        <v>0.46875</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02365930599369085</v>
+        <v>0.02668759811616955</v>
       </c>
     </row>
     <row r="24">
@@ -1400,25 +1400,25 @@
         <v>1.7</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F24" t="n">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G24" t="n">
-        <v>2736</v>
+        <v>2745</v>
       </c>
       <c r="H24" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01120346946151066</v>
+        <v>0.01294498381877023</v>
       </c>
       <c r="J24" t="n">
-        <v>0.484375</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02190038855528082</v>
+        <v>0.02525429673798667</v>
       </c>
     </row>
     <row r="25">
@@ -1441,25 +1441,25 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F25" t="n">
-        <v>1472</v>
+        <v>1502</v>
       </c>
       <c r="G25" t="n">
-        <v>3280</v>
+        <v>3252</v>
       </c>
       <c r="H25" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00966183574879227</v>
+        <v>0.01124961994527212</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01895734597156398</v>
+        <v>0.02203036618041084</v>
       </c>
     </row>
     <row r="26">
@@ -1485,22 +1485,22 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G26" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H26" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J26" t="n">
-        <v>0.078125</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.07751937984496124</v>
       </c>
     </row>
     <row r="27">
@@ -1526,22 +1526,22 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G27" t="n">
+        <v>66</v>
+      </c>
+      <c r="H27" t="n">
         <v>65</v>
       </c>
-      <c r="H27" t="n">
-        <v>59</v>
-      </c>
       <c r="I27" t="n">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="J27" t="n">
-        <v>0.078125</v>
-      </c>
       <c r="K27" t="n">
-        <v>0.07462686567164178</v>
+        <v>0.07092198581560284</v>
       </c>
     </row>
     <row r="28">
@@ -1567,22 +1567,22 @@
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>1532</v>
+        <v>1543</v>
       </c>
       <c r="G28" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H28" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05154639175257732</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="J28" t="n">
-        <v>0.078125</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06211180124223602</v>
+        <v>0.06289308176100629</v>
       </c>
     </row>
     <row r="29">
@@ -1605,25 +1605,25 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>2227</v>
+        <v>2244</v>
       </c>
       <c r="G29" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03305785123966942</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0625</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04324324324324325</v>
+        <v>0.05494505494505494</v>
       </c>
     </row>
     <row r="30">
@@ -1649,22 +1649,22 @@
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>2928</v>
+        <v>2937</v>
       </c>
       <c r="G30" t="n">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H30" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03355704697986577</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J30" t="n">
-        <v>0.078125</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K30" t="n">
-        <v>0.04694835680751173</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="31">
@@ -1690,22 +1690,22 @@
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>3387</v>
+        <v>3401</v>
       </c>
       <c r="G31" t="n">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="H31" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="J31" t="n">
-        <v>0.078125</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04273504273504274</v>
+        <v>0.04405286343612335</v>
       </c>
     </row>
     <row r="32">
@@ -1731,22 +1731,22 @@
         <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>3836</v>
+        <v>3859</v>
       </c>
       <c r="G32" t="n">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H32" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02590673575129534</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="J32" t="n">
-        <v>0.078125</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03891050583657588</v>
+        <v>0.04048582995951417</v>
       </c>
     </row>
     <row r="33">
@@ -1769,25 +1769,25 @@
         <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>4562</v>
+        <v>4569</v>
       </c>
       <c r="G33" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02061855670103093</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0625</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0310077519379845</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="34">
@@ -1810,25 +1810,25 @@
         <v>0.3</v>
       </c>
       <c r="E34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F34" t="n">
         <v>437</v>
       </c>
       <c r="G34" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H34" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1061224489795918</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="J34" t="n">
-        <v>0.40625</v>
+        <v>0.3</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1682847896440129</v>
+        <v>0.1329113924050633</v>
       </c>
     </row>
     <row r="35">
@@ -1851,25 +1851,25 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" t="n">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G35" t="n">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="H35" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0641025641025641</v>
+        <v>0.0581039755351682</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3125</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.09571788413098237</v>
       </c>
     </row>
     <row r="36">
@@ -1892,25 +1892,25 @@
         <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>1262</v>
+        <v>1269</v>
       </c>
       <c r="G36" t="n">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H36" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03208556149732621</v>
+        <v>0.04533333333333334</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1875</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0547945205479452</v>
+        <v>0.07640449438202247</v>
       </c>
     </row>
     <row r="37">
@@ -1933,25 +1933,25 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" t="n">
-        <v>1837</v>
+        <v>1877</v>
       </c>
       <c r="G37" t="n">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="H37" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03428571428571429</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="J37" t="n">
-        <v>0.28125</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K37" t="n">
-        <v>0.06112054329371817</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="38">
@@ -1974,25 +1974,25 @@
         <v>1.3</v>
       </c>
       <c r="E38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>2614</v>
+        <v>2560</v>
       </c>
       <c r="G38" t="n">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="H38" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02966101694915254</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J38" t="n">
-        <v>0.21875</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05223880597014925</v>
+        <v>0.05351170568561873</v>
       </c>
     </row>
     <row r="39">
@@ -2015,25 +2015,25 @@
         <v>1.5</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>3018</v>
+        <v>2977</v>
       </c>
       <c r="G39" t="n">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="H39" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0308529945553539</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="J39" t="n">
-        <v>0.265625</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05528455284552845</v>
+        <v>0.0453857791225416</v>
       </c>
     </row>
     <row r="40">
@@ -2056,25 +2056,25 @@
         <v>1.7</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>3476</v>
+        <v>3308</v>
       </c>
       <c r="G40" t="n">
-        <v>548</v>
+        <v>723</v>
       </c>
       <c r="H40" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01967799642218247</v>
+        <v>0.01766304347826087</v>
       </c>
       <c r="J40" t="n">
-        <v>0.171875</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03531300160513644</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="41">
@@ -2097,25 +2097,25 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>4055</v>
+        <v>4068</v>
       </c>
       <c r="G41" t="n">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="H41" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02244039270687237</v>
+        <v>0.02139800285306705</v>
       </c>
       <c r="J41" t="n">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K41" t="n">
-        <v>0.04118404118404118</v>
+        <v>0.03891050583657588</v>
       </c>
     </row>
     <row r="42">
@@ -2141,22 +2141,22 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="G42" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H42" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04</v>
+        <v>0.0625</v>
       </c>
       <c r="J42" t="n">
-        <v>0.015625</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02247191011235955</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="43">
@@ -2182,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H44" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3062</v>
+        <v>3050</v>
       </c>
       <c r="G46" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H46" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2346,13 +2346,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>3542</v>
+        <v>3533</v>
       </c>
       <c r="G47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2387,13 +2387,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>4015</v>
+        <v>4012</v>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>4744</v>
+        <v>4732</v>
       </c>
       <c r="G49" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H49" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2472,19 +2472,19 @@
         <v>74</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="51">
@@ -2510,13 +2510,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2551,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H52" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
         <v>23</v>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1690</v>
+        <v>1717</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2054</v>
+        <v>2007</v>
       </c>
       <c r="G56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -2756,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2592</v>
+        <v>2534</v>
       </c>
       <c r="G57" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2920,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1199</v>
+        <v>1232</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1700</v>
+        <v>1730</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2086</v>
+        <v>2129</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2508</v>
+        <v>2496</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>3115</v>
+        <v>3097</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0.3</v>
       </c>
       <c r="E66" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="G66" t="n">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="H66" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06481481481481481</v>
+        <v>0.046875</v>
       </c>
       <c r="J66" t="n">
-        <v>0.21875</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1</v>
+        <v>0.0736196319018405</v>
       </c>
     </row>
     <row r="67">
@@ -3163,25 +3163,25 @@
         <v>0.5</v>
       </c>
       <c r="E67" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="G67" t="n">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="H67" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I67" t="n">
-        <v>0.03861788617886179</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="J67" t="n">
-        <v>0.296875</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0683453237410072</v>
+        <v>0.05904059040590406</v>
       </c>
     </row>
     <row r="68">
@@ -3204,25 +3204,25 @@
         <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="G68" t="n">
         <v>809</v>
       </c>
       <c r="H68" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0241254523522316</v>
+        <v>0.02176541717049577</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3125</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K68" t="n">
-        <v>0.04479283314669653</v>
+        <v>0.04013377926421405</v>
       </c>
     </row>
     <row r="69">
@@ -3245,25 +3245,25 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F69" t="n">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="G69" t="n">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="H69" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01990445859872611</v>
+        <v>0.017585931254996</v>
       </c>
       <c r="J69" t="n">
-        <v>0.390625</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="K69" t="n">
-        <v>0.03787878787878788</v>
+        <v>0.03330809992429978</v>
       </c>
     </row>
     <row r="70">
@@ -3286,25 +3286,25 @@
         <v>1.3</v>
       </c>
       <c r="E70" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F70" t="n">
-        <v>1524</v>
+        <v>1421</v>
       </c>
       <c r="G70" t="n">
-        <v>1548</v>
+        <v>1651</v>
       </c>
       <c r="H70" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01464035646085296</v>
+        <v>0.01491646778042959</v>
       </c>
       <c r="J70" t="n">
-        <v>0.359375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K70" t="n">
-        <v>0.02813455657492355</v>
+        <v>0.0286368843069874</v>
       </c>
     </row>
     <row r="71">
@@ -3327,25 +3327,25 @@
         <v>1.5</v>
       </c>
       <c r="E71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71" t="n">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="G71" t="n">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="H71" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01352757544224766</v>
+        <v>0.01295336787564767</v>
       </c>
       <c r="J71" t="n">
-        <v>0.40625</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K71" t="n">
-        <v>0.02618328298086606</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="72">
@@ -3368,25 +3368,25 @@
         <v>1.7</v>
       </c>
       <c r="E72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" t="n">
-        <v>1958</v>
+        <v>1896</v>
       </c>
       <c r="G72" t="n">
-        <v>2066</v>
+        <v>2135</v>
       </c>
       <c r="H72" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01148325358851675</v>
+        <v>0.01157407407407407</v>
       </c>
       <c r="J72" t="n">
-        <v>0.375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02228412256267409</v>
+        <v>0.02242152466367713</v>
       </c>
     </row>
     <row r="73">
@@ -3409,25 +3409,25 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" t="n">
-        <v>2257</v>
+        <v>2353</v>
       </c>
       <c r="G73" t="n">
-        <v>2495</v>
+        <v>2401</v>
       </c>
       <c r="H73" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I73" t="n">
-        <v>0.009527590313616514</v>
+        <v>0.009488448844884489</v>
       </c>
       <c r="J73" t="n">
-        <v>0.375</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01858304297328688</v>
+        <v>0.01844426623897354</v>
       </c>
     </row>
     <row r="74">
@@ -3453,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>2344</v>
+        <v>2351</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3699,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>4023</v>
+        <v>4030</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>4752</v>
+        <v>4754</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
